--- a/Code/Results/Cases/Case_2_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.443774470790459</v>
+        <v>1.300208399224204</v>
       </c>
       <c r="C2">
-        <v>0.1278770884440092</v>
+        <v>0.04395605117662171</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0385048088175548</v>
+        <v>0.08576357180315597</v>
       </c>
       <c r="F2">
-        <v>1.88630000636752</v>
+        <v>3.109416300997921</v>
       </c>
       <c r="G2">
-        <v>0.0008446558876840093</v>
+        <v>0.002580363329603541</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.03597021967888</v>
+        <v>1.897989459481202</v>
       </c>
       <c r="J2">
-        <v>0.07795833914498129</v>
+        <v>0.1473016881408207</v>
       </c>
       <c r="K2">
-        <v>1.392749643665894</v>
+        <v>1.052472831731592</v>
       </c>
       <c r="L2">
-        <v>0.2997112476223549</v>
+        <v>0.3802095517735609</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.630086795265555</v>
+        <v>3.087961604294925</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.271486894111433</v>
+        <v>1.262008088567597</v>
       </c>
       <c r="C3">
-        <v>0.1102963712828284</v>
+        <v>0.03900796721909217</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03521578213015708</v>
+        <v>0.08536323208581642</v>
       </c>
       <c r="F3">
-        <v>1.784895939386814</v>
+        <v>3.099647560060859</v>
       </c>
       <c r="G3">
-        <v>0.0008507236625952632</v>
+        <v>0.00258421229339725</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.013669279694611</v>
+        <v>1.90088666723711</v>
       </c>
       <c r="J3">
-        <v>0.08039147366891708</v>
+        <v>0.148000278681635</v>
       </c>
       <c r="K3">
-        <v>1.22112989315255</v>
+        <v>1.012499874882309</v>
       </c>
       <c r="L3">
-        <v>0.2671972132079077</v>
+        <v>0.3740354005221178</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.675660314599732</v>
+        <v>3.107356460029003</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.167182386178951</v>
+        <v>1.239253311982111</v>
       </c>
       <c r="C4">
-        <v>0.09968666828764583</v>
+        <v>0.03598554884227667</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03322463803371001</v>
+        <v>0.08514649481235281</v>
       </c>
       <c r="F4">
-        <v>1.725403233084037</v>
+        <v>3.095007892897868</v>
       </c>
       <c r="G4">
-        <v>0.000854564183428881</v>
+        <v>0.002586701312871189</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.001523841337061</v>
+        <v>1.903400244391122</v>
       </c>
       <c r="J4">
-        <v>0.08191911734948987</v>
+        <v>0.1484465133231436</v>
       </c>
       <c r="K4">
-        <v>1.117280683528691</v>
+        <v>0.9885536846202285</v>
       </c>
       <c r="L4">
-        <v>0.2475240303583348</v>
+        <v>0.3704258763042532</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.70540510586855</v>
+        <v>3.120062264798023</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.12501320487894</v>
+        <v>1.23015696916417</v>
       </c>
       <c r="C5">
-        <v>0.09540354046153254</v>
+        <v>0.03475774506732421</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0324199690726239</v>
+        <v>0.08506551445782407</v>
       </c>
       <c r="F5">
-        <v>1.70181457349409</v>
+        <v>3.093458891801617</v>
       </c>
       <c r="G5">
-        <v>0.0008561588685700979</v>
+        <v>0.00258774732612716</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.996943858934273</v>
+        <v>1.904609283869462</v>
       </c>
       <c r="J5">
-        <v>0.08255015438372859</v>
+        <v>0.1486327128030769</v>
       </c>
       <c r="K5">
-        <v>1.075304853579979</v>
+        <v>0.9789457033002122</v>
       </c>
       <c r="L5">
-        <v>0.2395740751168063</v>
+        <v>0.3690007032537608</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.717955712215293</v>
+        <v>3.125440397108541</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.118030296927913</v>
+        <v>1.228657192275563</v>
       </c>
       <c r="C6">
-        <v>0.09469460097152194</v>
+        <v>0.03455409923994068</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03228675056286789</v>
+        <v>0.08505251208134901</v>
       </c>
       <c r="F6">
-        <v>1.697936098656442</v>
+        <v>3.093222323065035</v>
       </c>
       <c r="G6">
-        <v>0.0008564254764232992</v>
+        <v>0.002587922934600121</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9962051125745148</v>
+        <v>1.904821201502529</v>
       </c>
       <c r="J6">
-        <v>0.08265545275077146</v>
+        <v>0.1486638943003269</v>
       </c>
       <c r="K6">
-        <v>1.068354424005008</v>
+        <v>0.977359384510379</v>
       </c>
       <c r="L6">
-        <v>0.2382578696542623</v>
+        <v>0.3687668201958019</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.720065276131891</v>
+        <v>3.126345534384463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.166612365097535</v>
+        <v>1.23912992083234</v>
       </c>
       <c r="C7">
-        <v>0.09962874864770299</v>
+        <v>0.0359689747674139</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03321375919565739</v>
+        <v>0.08514537291426549</v>
       </c>
       <c r="F7">
-        <v>1.725082508556255</v>
+        <v>3.09498561883305</v>
       </c>
       <c r="G7">
-        <v>0.0008545855688804901</v>
+        <v>0.002586715291149346</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.001460603653825</v>
+        <v>1.903415801942494</v>
       </c>
       <c r="J7">
-        <v>0.08192759322648313</v>
+        <v>0.1484490068329833</v>
       </c>
       <c r="K7">
-        <v>1.116713242940392</v>
+        <v>0.9884234994248686</v>
       </c>
       <c r="L7">
-        <v>0.2474165508129005</v>
+        <v>0.3704064705783168</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.705572646865903</v>
+        <v>3.12013398480866</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.384039575910293</v>
+        <v>1.286891733980127</v>
       </c>
       <c r="C8">
-        <v>0.1217730734558131</v>
+        <v>0.04224662756631403</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03736463152714364</v>
+        <v>0.08561951898880515</v>
       </c>
       <c r="F8">
-        <v>1.85073527236041</v>
+        <v>3.10576617142803</v>
       </c>
       <c r="G8">
-        <v>0.0008467246800862819</v>
+        <v>0.002581664414898588</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.027947410853429</v>
+        <v>1.898835927220844</v>
       </c>
       <c r="J8">
-        <v>0.07879031438281181</v>
+        <v>0.1475389756223828</v>
       </c>
       <c r="K8">
-        <v>1.333233396510764</v>
+        <v>1.038566199949713</v>
       </c>
       <c r="L8">
-        <v>0.2884363436940305</v>
+        <v>0.3780431149039742</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.645426145906463</v>
+        <v>3.094483432505527</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.82395709651405</v>
+        <v>1.386103088939024</v>
       </c>
       <c r="C9">
-        <v>0.1669645119846308</v>
+        <v>0.05468688258913801</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04574834548797568</v>
+        <v>0.08677874643219496</v>
       </c>
       <c r="F9">
-        <v>2.121131770927306</v>
+        <v>3.137684189206269</v>
       </c>
       <c r="G9">
-        <v>0.0008321845481545462</v>
+        <v>0.002572752814401941</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.093126164486939</v>
+        <v>1.895685977374804</v>
       </c>
       <c r="J9">
-        <v>0.07290369476679182</v>
+        <v>0.1458913633058292</v>
       </c>
       <c r="K9">
-        <v>1.771905900011546</v>
+        <v>1.141639203815913</v>
       </c>
       <c r="L9">
-        <v>0.3714769006506344</v>
+        <v>0.3944542640890916</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.542132608374317</v>
+        <v>3.050511739753432</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.15814888415656</v>
+        <v>1.462378540704947</v>
       </c>
       <c r="C10">
-        <v>0.2017004076502786</v>
+        <v>0.06391369311151607</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05208564717750619</v>
+        <v>0.08776878907611874</v>
       </c>
       <c r="F10">
-        <v>2.337461477308295</v>
+        <v>3.167710623018678</v>
       </c>
       <c r="G10">
-        <v>0.0008219805530120478</v>
+        <v>0.002566804549532065</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.150534156953938</v>
+        <v>1.896931374598601</v>
       </c>
       <c r="J10">
-        <v>0.06873839396271264</v>
+        <v>0.1447639082748622</v>
       </c>
       <c r="K10">
-        <v>2.105775325990521</v>
+        <v>1.220273187720721</v>
       </c>
       <c r="L10">
-        <v>0.4345198664902625</v>
+        <v>0.4073834165413075</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.476183716164911</v>
+        <v>3.022067590993757</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.31323608333355</v>
+        <v>1.497814147025906</v>
       </c>
       <c r="C11">
-        <v>0.2179492577476481</v>
+        <v>0.06813183112384991</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0550143396597278</v>
+        <v>0.08824892185359801</v>
       </c>
       <c r="F11">
-        <v>2.440456893170747</v>
+        <v>3.182800251075591</v>
       </c>
       <c r="G11">
-        <v>0.0008174291528886268</v>
+        <v>0.002564227261150116</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.17907439202655</v>
+        <v>1.898272134787334</v>
       </c>
       <c r="J11">
-        <v>0.06687777776114634</v>
+        <v>0.1442689372465011</v>
       </c>
       <c r="K11">
-        <v>2.260911702926421</v>
+        <v>1.256680693373909</v>
       </c>
       <c r="L11">
-        <v>0.463750230374032</v>
+        <v>0.4134539561867854</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.448589383398058</v>
+        <v>3.009967015442712</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.37246491192127</v>
+        <v>1.511338616458772</v>
       </c>
       <c r="C12">
-        <v>0.2241771394511431</v>
+        <v>0.06973224555716229</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05613058039124041</v>
+        <v>0.08843498601315503</v>
       </c>
       <c r="F12">
-        <v>2.480186180174314</v>
+        <v>3.188720023782636</v>
       </c>
       <c r="G12">
-        <v>0.0008157174647354933</v>
+        <v>0.002563269699776612</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.190263403358642</v>
+        <v>1.898891248222668</v>
       </c>
       <c r="J12">
-        <v>0.06617811935639728</v>
+        <v>0.1440840748175591</v>
       </c>
       <c r="K12">
-        <v>2.320193686898193</v>
+        <v>1.270558906367626</v>
       </c>
       <c r="L12">
-        <v>0.4749082102260047</v>
+        <v>0.4157798040180722</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.438509432874397</v>
+        <v>3.005505567155495</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.359685633525999</v>
+        <v>1.508421180050846</v>
       </c>
       <c r="C13">
-        <v>0.2228323487882449</v>
+        <v>0.06938742826963562</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05588984694832178</v>
+        <v>0.088394725311705</v>
       </c>
       <c r="F13">
-        <v>2.471596281678245</v>
+        <v>3.187435948691331</v>
       </c>
       <c r="G13">
-        <v>0.0008160856012511647</v>
+        <v>0.002563475110889893</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.187836130281866</v>
+        <v>1.898752955613119</v>
       </c>
       <c r="J13">
-        <v>0.06632858454046686</v>
+        <v>0.144123773899083</v>
       </c>
       <c r="K13">
-        <v>2.307401315429331</v>
+        <v>1.267565916987252</v>
       </c>
       <c r="L13">
-        <v>0.4725010138445072</v>
+        <v>0.4152776890757792</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.440663502673104</v>
+        <v>3.006461045725388</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.318098474231022</v>
+        <v>1.498924694978598</v>
       </c>
       <c r="C14">
-        <v>0.2184600664795653</v>
+        <v>0.06826343551544767</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0551060252517992</v>
+        <v>0.08826414449758246</v>
       </c>
       <c r="F14">
-        <v>2.443710462118304</v>
+        <v>3.183283152855211</v>
       </c>
       <c r="G14">
-        <v>0.0008172881012966934</v>
+        <v>0.002564148113728116</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.179987075491496</v>
+        <v>1.898320836688896</v>
       </c>
       <c r="J14">
-        <v>0.06682011787307818</v>
+        <v>0.1442536769694116</v>
       </c>
       <c r="K14">
-        <v>2.265777735776936</v>
+        <v>1.257820629163348</v>
       </c>
       <c r="L14">
-        <v>0.4646663601040757</v>
+        <v>0.4136447632808711</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.447752553625719</v>
+        <v>3.009597547940132</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.292692230040075</v>
+        <v>1.493121590373846</v>
       </c>
       <c r="C15">
-        <v>0.2157919870110021</v>
+        <v>0.06757536392579766</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05462686986587784</v>
+        <v>0.08818471232124381</v>
       </c>
       <c r="F15">
-        <v>2.426726405520697</v>
+        <v>3.180766227152304</v>
       </c>
       <c r="G15">
-        <v>0.0008180261709937415</v>
+        <v>0.002564562741148414</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.175230002151622</v>
+        <v>1.898070660461343</v>
       </c>
       <c r="J15">
-        <v>0.06712183667844163</v>
+        <v>0.1443335812426598</v>
       </c>
       <c r="K15">
-        <v>2.240353881689174</v>
+        <v>1.251863271098586</v>
       </c>
       <c r="L15">
-        <v>0.4598793120315179</v>
+        <v>0.412648070583657</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.45214364629534</v>
+        <v>3.011534479585706</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.148080216699896</v>
+        <v>1.460077557240083</v>
       </c>
       <c r="C16">
-        <v>0.2006483791998335</v>
+        <v>0.06363845559958747</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05189522404381464</v>
+        <v>0.08773800743013282</v>
       </c>
       <c r="F16">
-        <v>2.330828413929552</v>
+        <v>3.166753261242235</v>
       </c>
       <c r="G16">
-        <v>0.0008222797192954417</v>
+        <v>0.002566975561634291</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.148720511719802</v>
+        <v>1.896859337543418</v>
       </c>
       <c r="J16">
-        <v>0.06886067742284763</v>
+        <v>0.1447966159543479</v>
       </c>
       <c r="K16">
-        <v>2.095707913900185</v>
+        <v>1.217906675573971</v>
       </c>
       <c r="L16">
-        <v>0.4326215094045693</v>
+        <v>0.4069904861188434</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.47803743962011</v>
+        <v>3.022875284406155</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.060190846518879</v>
+        <v>1.439994809148288</v>
       </c>
       <c r="C17">
-        <v>0.1914799554935769</v>
+        <v>0.06122869495291638</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05023160830453222</v>
+        <v>0.08747156808256662</v>
       </c>
       <c r="F17">
-        <v>2.273218941587089</v>
+        <v>3.158523104450538</v>
       </c>
       <c r="G17">
-        <v>0.0008249114928750396</v>
+        <v>0.002568488622604173</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.133101247742921</v>
+        <v>1.896314572078609</v>
       </c>
       <c r="J17">
-        <v>0.06993615485281646</v>
+        <v>0.1450852582938658</v>
       </c>
       <c r="K17">
-        <v>2.007852184685191</v>
+        <v>1.197238393913494</v>
       </c>
       <c r="L17">
-        <v>0.416047718039863</v>
+        <v>0.4035680694983768</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.494554681402249</v>
+        <v>3.030047450751425</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.009923451685722</v>
+        <v>1.428513179015965</v>
       </c>
       <c r="C18">
-        <v>0.1862479373154997</v>
+        <v>0.05984461738842128</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04927901345845243</v>
+        <v>0.08732112195728803</v>
       </c>
       <c r="F18">
-        <v>2.240510746450894</v>
+        <v>3.15392397896872</v>
       </c>
       <c r="G18">
-        <v>0.0008264338091130696</v>
+        <v>0.002569371005851682</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.12434358536072</v>
+        <v>1.896074106844985</v>
       </c>
       <c r="J18">
-        <v>0.0705579595491137</v>
+        <v>0.1452529640811067</v>
       </c>
       <c r="K18">
-        <v>1.957622149660864</v>
+        <v>1.185410459129997</v>
       </c>
       <c r="L18">
-        <v>0.4065662193291075</v>
+        <v>0.4016173825355622</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.504279910117944</v>
+        <v>3.034251634221619</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.992950844465042</v>
+        <v>1.424637630548432</v>
       </c>
       <c r="C19">
-        <v>0.1844832772728182</v>
+        <v>0.05937632478512</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04895719706561508</v>
+        <v>0.08727066579758258</v>
       </c>
       <c r="F19">
-        <v>2.229507730011008</v>
+        <v>3.152389920455136</v>
       </c>
       <c r="G19">
-        <v>0.0008269507487767363</v>
+        <v>0.002569671848271271</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.121416280660711</v>
+        <v>1.896005202943378</v>
       </c>
       <c r="J19">
-        <v>0.07076904494513814</v>
+        <v>0.1453100361253936</v>
       </c>
       <c r="K19">
-        <v>1.940665102288563</v>
+        <v>1.181416015522871</v>
       </c>
       <c r="L19">
-        <v>0.4033644761988029</v>
+        <v>0.4009599734537517</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.507610663158943</v>
+        <v>3.035688652357308</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.069516981763911</v>
+        <v>1.442125467705694</v>
       </c>
       <c r="C20">
-        <v>0.1924515909118725</v>
+        <v>0.06148501520682714</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05040825648873337</v>
+        <v>0.08749964115671105</v>
       </c>
       <c r="F20">
-        <v>2.279306878603521</v>
+        <v>3.15938528393329</v>
       </c>
       <c r="G20">
-        <v>0.0008246304552899462</v>
+        <v>0.002568326301950754</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.134740314621226</v>
+        <v>1.896365021112651</v>
       </c>
       <c r="J20">
-        <v>0.06982133538577662</v>
+        <v>0.1450543573195868</v>
       </c>
       <c r="K20">
-        <v>2.017172830856708</v>
+        <v>1.19943236725544</v>
       </c>
       <c r="L20">
-        <v>0.4178066484992797</v>
+        <v>0.4039305505297932</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.492772949042589</v>
+        <v>3.029275789948287</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.330299533242453</v>
+        <v>1.501711174366903</v>
       </c>
       <c r="C21">
-        <v>0.2197421930264625</v>
+        <v>0.06859349454721553</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05533605184929158</v>
+        <v>0.08830238419508873</v>
       </c>
       <c r="F21">
-        <v>2.451880897796812</v>
+        <v>3.184497348448048</v>
       </c>
       <c r="G21">
-        <v>0.0008169345867403537</v>
+        <v>0.002563949937846144</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.182281904613063</v>
+        <v>1.89844473669072</v>
       </c>
       <c r="J21">
-        <v>0.06667560913577975</v>
+        <v>0.1442154515041119</v>
       </c>
       <c r="K21">
-        <v>2.277988500732334</v>
+        <v>1.260680574033557</v>
       </c>
       <c r="L21">
-        <v>0.4669650885428496</v>
+        <v>0.4141236594912243</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.445660103348459</v>
+        <v>3.008673002080172</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.503686547718019</v>
+        <v>1.541270285428254</v>
       </c>
       <c r="C22">
-        <v>0.238019805878011</v>
+        <v>0.07325739767478012</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05859899392096679</v>
+        <v>0.08885177132659194</v>
       </c>
       <c r="F22">
-        <v>2.568942475341927</v>
+        <v>3.202108251715146</v>
       </c>
       <c r="G22">
-        <v>0.0008119732128957224</v>
+        <v>0.00256119694913944</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.215593920104297</v>
+        <v>1.90045328792155</v>
       </c>
       <c r="J22">
-        <v>0.06464836111887973</v>
+        <v>0.1436821701527755</v>
       </c>
       <c r="K22">
-        <v>2.451601940111743</v>
+        <v>1.301243018019761</v>
       </c>
       <c r="L22">
-        <v>0.4996173207801746</v>
+        <v>0.4209431564984953</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.417034998219421</v>
+        <v>2.99591194635174</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.410855186742765</v>
+        <v>1.520100533443326</v>
       </c>
       <c r="C23">
-        <v>0.2282205415785796</v>
+        <v>0.07076649409825109</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05685340720502907</v>
+        <v>0.08855629874712889</v>
       </c>
       <c r="F23">
-        <v>2.50604935851311</v>
+        <v>3.192599310328561</v>
       </c>
       <c r="G23">
-        <v>0.0008146153570382544</v>
+        <v>0.002562656490443996</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.197597991737226</v>
+        <v>1.899321849950496</v>
       </c>
       <c r="J23">
-        <v>0.06572771583096815</v>
+        <v>0.1439654218303019</v>
       </c>
       <c r="K23">
-        <v>2.358628695241521</v>
+        <v>1.279545305453297</v>
       </c>
       <c r="L23">
-        <v>0.4821387889075055</v>
+        <v>0.4172890689200983</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.432106226534373</v>
+        <v>3.002658287648828</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.065299826392049</v>
+        <v>1.441161996942412</v>
       </c>
       <c r="C24">
-        <v>0.1920121937454979</v>
+        <v>0.0613691286993685</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05032838193007549</v>
+        <v>0.08748694080397001</v>
       </c>
       <c r="F24">
-        <v>2.276553243229444</v>
+        <v>3.158995079839855</v>
       </c>
       <c r="G24">
-        <v>0.0008247574834119456</v>
+        <v>0.002568399648086331</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.133998603252685</v>
+        <v>1.896341986553772</v>
       </c>
       <c r="J24">
-        <v>0.0698732343700198</v>
+        <v>0.1450683221616198</v>
       </c>
       <c r="K24">
-        <v>2.012958101442223</v>
+        <v>1.198440302029923</v>
       </c>
       <c r="L24">
-        <v>0.417011290385247</v>
+        <v>0.4037666201892733</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.493577757934375</v>
+        <v>3.029624406066915</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.703229787161376</v>
+        <v>1.358669465864381</v>
       </c>
       <c r="C25">
-        <v>0.1545052634507016</v>
+        <v>0.05130676125932609</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04345134805195272</v>
+        <v>0.08644073923036188</v>
       </c>
       <c r="F25">
-        <v>2.045114564820906</v>
+        <v>3.127895114384572</v>
       </c>
       <c r="G25">
-        <v>0.0008360297745631193</v>
+        <v>0.002575057974719138</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.073933918859247</v>
+        <v>1.89591336729999</v>
       </c>
       <c r="J25">
-        <v>0.07446800937722164</v>
+        <v>0.1463224707607416</v>
       </c>
       <c r="K25">
-        <v>1.65143231242763</v>
+        <v>1.113245928025833</v>
       </c>
       <c r="L25">
-        <v>0.3486896830441566</v>
+        <v>0.3898612614374031</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.568408865052973</v>
+        <v>3.061729338462079</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_184/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.300208399224204</v>
+        <v>1.443774470790316</v>
       </c>
       <c r="C2">
-        <v>0.04395605117662171</v>
+        <v>0.1278770884437535</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08576357180315597</v>
+        <v>0.03850480881759033</v>
       </c>
       <c r="F2">
-        <v>3.109416300997921</v>
+        <v>1.88630000636752</v>
       </c>
       <c r="G2">
-        <v>0.002580363329603541</v>
+        <v>0.0008446558877450463</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.897989459481202</v>
+        <v>1.035970219678887</v>
       </c>
       <c r="J2">
-        <v>0.1473016881408207</v>
+        <v>0.0779583391450982</v>
       </c>
       <c r="K2">
-        <v>1.052472831731592</v>
+        <v>1.392749643665923</v>
       </c>
       <c r="L2">
-        <v>0.3802095517735609</v>
+        <v>0.2997112476223833</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.087961604294925</v>
+        <v>1.630086795265626</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.262008088567597</v>
+        <v>1.271486894111291</v>
       </c>
       <c r="C3">
-        <v>0.03900796721909217</v>
+        <v>0.1102963712828284</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08536323208581642</v>
+        <v>0.0352157821301553</v>
       </c>
       <c r="F3">
-        <v>3.099647560060859</v>
+        <v>1.784895939386814</v>
       </c>
       <c r="G3">
-        <v>0.00258421229339725</v>
+        <v>0.0008507236625941765</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.90088666723711</v>
+        <v>1.013669279694589</v>
       </c>
       <c r="J3">
-        <v>0.148000278681635</v>
+        <v>0.08039147366890753</v>
       </c>
       <c r="K3">
-        <v>1.012499874882309</v>
+        <v>1.221129893152465</v>
       </c>
       <c r="L3">
-        <v>0.3740354005221178</v>
+        <v>0.2671972132079361</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.107356460029003</v>
+        <v>1.675660314599696</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.239253311982111</v>
+        <v>1.167182386179121</v>
       </c>
       <c r="C4">
-        <v>0.03598554884227667</v>
+        <v>0.09968666828777373</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08514649481235281</v>
+        <v>0.03322463803369047</v>
       </c>
       <c r="F4">
-        <v>3.095007892897868</v>
+        <v>1.72540323308408</v>
       </c>
       <c r="G4">
-        <v>0.002586701312871189</v>
+        <v>0.0008545641833616404</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.903400244391122</v>
+        <v>1.001523841337075</v>
       </c>
       <c r="J4">
-        <v>0.1484465133231436</v>
+        <v>0.0819191173494862</v>
       </c>
       <c r="K4">
-        <v>0.9885536846202285</v>
+        <v>1.117280683528691</v>
       </c>
       <c r="L4">
-        <v>0.3704258763042532</v>
+        <v>0.2475240303583917</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.120062264798023</v>
+        <v>1.705405105868529</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.23015696916417</v>
+        <v>1.125013204878826</v>
       </c>
       <c r="C5">
-        <v>0.03475774506732421</v>
+        <v>0.09540354046141886</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08506551445782407</v>
+        <v>0.03241996907260791</v>
       </c>
       <c r="F5">
-        <v>3.093458891801617</v>
+        <v>1.701814573494062</v>
       </c>
       <c r="G5">
-        <v>0.00258774732612716</v>
+        <v>0.0008561588685754575</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.904609283869462</v>
+        <v>0.996943858934273</v>
       </c>
       <c r="J5">
-        <v>0.1486327128030769</v>
+        <v>0.08255015438372626</v>
       </c>
       <c r="K5">
-        <v>0.9789457033002122</v>
+        <v>1.075304853579951</v>
       </c>
       <c r="L5">
-        <v>0.3690007032537608</v>
+        <v>0.2395740751169058</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.125440397108541</v>
+        <v>1.7179557122152</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.228657192275563</v>
+        <v>1.118030296928168</v>
       </c>
       <c r="C6">
-        <v>0.03455409923994068</v>
+        <v>0.09469460097174931</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08505251208134901</v>
+        <v>0.03228675056285724</v>
       </c>
       <c r="F6">
-        <v>3.093222323065035</v>
+        <v>1.697936098656456</v>
       </c>
       <c r="G6">
-        <v>0.002587922934600121</v>
+        <v>0.0008564254763860119</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.904821201502529</v>
+        <v>0.9962051125745219</v>
       </c>
       <c r="J6">
-        <v>0.1486638943003269</v>
+        <v>0.08265545275071262</v>
       </c>
       <c r="K6">
-        <v>0.977359384510379</v>
+        <v>1.068354424005065</v>
       </c>
       <c r="L6">
-        <v>0.3687668201958019</v>
+        <v>0.2382578696542197</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.126345534384463</v>
+        <v>1.720065276131834</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.23912992083234</v>
+        <v>1.166612365097649</v>
       </c>
       <c r="C7">
-        <v>0.0359689747674139</v>
+        <v>0.09962874864768878</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08514537291426549</v>
+        <v>0.03321375919565561</v>
       </c>
       <c r="F7">
-        <v>3.09498561883305</v>
+        <v>1.72508250855627</v>
       </c>
       <c r="G7">
-        <v>0.002586715291149346</v>
+        <v>0.0008545855689166071</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.903415801942494</v>
+        <v>1.00146060365384</v>
       </c>
       <c r="J7">
-        <v>0.1484490068329833</v>
+        <v>0.08192759322649501</v>
       </c>
       <c r="K7">
-        <v>0.9884234994248686</v>
+        <v>1.116713242940278</v>
       </c>
       <c r="L7">
-        <v>0.3704064705783168</v>
+        <v>0.247416550812801</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.12013398480866</v>
+        <v>1.705572646865939</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.286891733980127</v>
+        <v>1.384039575910521</v>
       </c>
       <c r="C8">
-        <v>0.04224662756631403</v>
+        <v>0.1217730734556994</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08561951898880515</v>
+        <v>0.03736463152713831</v>
       </c>
       <c r="F8">
-        <v>3.10576617142803</v>
+        <v>1.850735272360424</v>
       </c>
       <c r="G8">
-        <v>0.002581664414898588</v>
+        <v>0.000846724680084773</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.898835927220844</v>
+        <v>1.027947410853422</v>
       </c>
       <c r="J8">
-        <v>0.1475389756223828</v>
+        <v>0.07879031438279915</v>
       </c>
       <c r="K8">
-        <v>1.038566199949713</v>
+        <v>1.333233396510707</v>
       </c>
       <c r="L8">
-        <v>0.3780431149039742</v>
+        <v>0.2884363436940163</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.094483432505527</v>
+        <v>1.645426145906427</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.386103088939024</v>
+        <v>1.823957096514079</v>
       </c>
       <c r="C9">
-        <v>0.05468688258913801</v>
+        <v>0.1669645119847445</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08677874643219496</v>
+        <v>0.04574834548796147</v>
       </c>
       <c r="F9">
-        <v>3.137684189206269</v>
+        <v>2.121131770927292</v>
       </c>
       <c r="G9">
-        <v>0.002572752814401941</v>
+        <v>0.0008321845481530395</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.895685977374804</v>
+        <v>1.093126164486947</v>
       </c>
       <c r="J9">
-        <v>0.1458913633058292</v>
+        <v>0.07290369476672665</v>
       </c>
       <c r="K9">
-        <v>1.141639203815913</v>
+        <v>1.771905900011603</v>
       </c>
       <c r="L9">
-        <v>0.3944542640890916</v>
+        <v>0.3714769006507339</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.050511739753432</v>
+        <v>1.542132608374374</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.462378540704947</v>
+        <v>2.15814888415639</v>
       </c>
       <c r="C10">
-        <v>0.06391369311151607</v>
+        <v>0.2017004076501792</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08776878907611874</v>
+        <v>0.05208564717751685</v>
       </c>
       <c r="F10">
-        <v>3.167710623018678</v>
+        <v>2.337461477308281</v>
       </c>
       <c r="G10">
-        <v>0.002566804549532065</v>
+        <v>0.0008219805529973787</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.896931374598601</v>
+        <v>1.150534156953952</v>
       </c>
       <c r="J10">
-        <v>0.1447639082748622</v>
+        <v>0.06873839396274273</v>
       </c>
       <c r="K10">
-        <v>1.220273187720721</v>
+        <v>2.105775325990635</v>
       </c>
       <c r="L10">
-        <v>0.4073834165413075</v>
+        <v>0.4345198664902341</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.022067590993757</v>
+        <v>1.476183716164911</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.497814147025906</v>
+        <v>2.31323608333372</v>
       </c>
       <c r="C11">
-        <v>0.06813183112384991</v>
+        <v>0.2179492577479607</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08824892185359801</v>
+        <v>0.05501433965979885</v>
       </c>
       <c r="F11">
-        <v>3.182800251075591</v>
+        <v>2.440456893170776</v>
       </c>
       <c r="G11">
-        <v>0.002564227261150116</v>
+        <v>0.0008174291527924375</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.898272134787334</v>
+        <v>1.179074392026564</v>
       </c>
       <c r="J11">
-        <v>0.1442689372465011</v>
+        <v>0.06687777776113768</v>
       </c>
       <c r="K11">
-        <v>1.256680693373909</v>
+        <v>2.260911702926393</v>
       </c>
       <c r="L11">
-        <v>0.4134539561867854</v>
+        <v>0.4637502303740177</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.009967015442712</v>
+        <v>1.448589383398044</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.511338616458772</v>
+        <v>2.372464911921156</v>
       </c>
       <c r="C12">
-        <v>0.06973224555716229</v>
+        <v>0.2241771394511147</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08843498601315503</v>
+        <v>0.05613058039124752</v>
       </c>
       <c r="F12">
-        <v>3.188720023782636</v>
+        <v>2.4801861801743</v>
       </c>
       <c r="G12">
-        <v>0.002563269699776612</v>
+        <v>0.0008157174647341062</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.898891248222668</v>
+        <v>1.190263403358642</v>
       </c>
       <c r="J12">
-        <v>0.1440840748175591</v>
+        <v>0.06617811935643259</v>
       </c>
       <c r="K12">
-        <v>1.270558906367626</v>
+        <v>2.320193686898165</v>
       </c>
       <c r="L12">
-        <v>0.4157798040180722</v>
+        <v>0.4749082102260189</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.005505567155495</v>
+        <v>1.43850943287444</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.508421180050846</v>
+        <v>2.359685633525999</v>
       </c>
       <c r="C13">
-        <v>0.06938742826963562</v>
+        <v>0.2228323487882164</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.088394725311705</v>
+        <v>0.05588984694833599</v>
       </c>
       <c r="F13">
-        <v>3.187435948691331</v>
+        <v>2.471596281678245</v>
       </c>
       <c r="G13">
-        <v>0.002563475110889893</v>
+        <v>0.0008160856012976483</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.898752955613119</v>
+        <v>1.18783613028188</v>
       </c>
       <c r="J13">
-        <v>0.144123773899083</v>
+        <v>0.06632858454045343</v>
       </c>
       <c r="K13">
-        <v>1.267565916987252</v>
+        <v>2.307401315429416</v>
       </c>
       <c r="L13">
-        <v>0.4152776890757792</v>
+        <v>0.4725010138444787</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.006461045725388</v>
+        <v>1.440663502673104</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.498924694978598</v>
+        <v>2.318098474231135</v>
       </c>
       <c r="C14">
-        <v>0.06826343551544767</v>
+        <v>0.21846006648002</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08826414449758246</v>
+        <v>0.05510602525182406</v>
       </c>
       <c r="F14">
-        <v>3.183283152855211</v>
+        <v>2.443710462118275</v>
       </c>
       <c r="G14">
-        <v>0.002564148113728116</v>
+        <v>0.0008172881012963304</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.898320836688896</v>
+        <v>1.179987075491496</v>
       </c>
       <c r="J14">
-        <v>0.1442536769694116</v>
+        <v>0.06682011787306896</v>
       </c>
       <c r="K14">
-        <v>1.257820629163348</v>
+        <v>2.265777735776908</v>
       </c>
       <c r="L14">
-        <v>0.4136447632808711</v>
+        <v>0.4646663601041752</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.009597547940132</v>
+        <v>1.447752553625776</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.493121590373846</v>
+        <v>2.292692230040132</v>
       </c>
       <c r="C15">
-        <v>0.06757536392579766</v>
+        <v>0.2157919870109879</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08818471232124381</v>
+        <v>0.05462686986588849</v>
       </c>
       <c r="F15">
-        <v>3.180766227152304</v>
+        <v>2.426726405520725</v>
       </c>
       <c r="G15">
-        <v>0.002564562741148414</v>
+        <v>0.0008180261710221096</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.898070660461343</v>
+        <v>1.175230002151636</v>
       </c>
       <c r="J15">
-        <v>0.1443335812426598</v>
+        <v>0.06712183667848826</v>
       </c>
       <c r="K15">
-        <v>1.251863271098586</v>
+        <v>2.240353881689174</v>
       </c>
       <c r="L15">
-        <v>0.412648070583657</v>
+        <v>0.4598793120314326</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.011534479585706</v>
+        <v>1.452143646295383</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.460077557240083</v>
+        <v>2.148080216699668</v>
       </c>
       <c r="C16">
-        <v>0.06363845559958747</v>
+        <v>0.2006483791994782</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08773800743013282</v>
+        <v>0.05189522404384306</v>
       </c>
       <c r="F16">
-        <v>3.166753261242235</v>
+        <v>2.330828413929538</v>
       </c>
       <c r="G16">
-        <v>0.002566975561634291</v>
+        <v>0.0008222797193868651</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.896859337543418</v>
+        <v>1.14872051171978</v>
       </c>
       <c r="J16">
-        <v>0.1447966159543479</v>
+        <v>0.06886067742283841</v>
       </c>
       <c r="K16">
-        <v>1.217906675573971</v>
+        <v>2.095707913900156</v>
       </c>
       <c r="L16">
-        <v>0.4069904861188434</v>
+        <v>0.4326215094045835</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.022875284406155</v>
+        <v>1.478037439620138</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.439994809148288</v>
+        <v>2.060190846518765</v>
       </c>
       <c r="C17">
-        <v>0.06122869495291638</v>
+        <v>0.1914799554939037</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08747156808256662</v>
+        <v>0.05023160830453222</v>
       </c>
       <c r="F17">
-        <v>3.158523104450538</v>
+        <v>2.273218941587075</v>
       </c>
       <c r="G17">
-        <v>0.002568488622604173</v>
+        <v>0.0008249114928436135</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.896314572078609</v>
+        <v>1.133101247742921</v>
       </c>
       <c r="J17">
-        <v>0.1450852582938658</v>
+        <v>0.06993615485291083</v>
       </c>
       <c r="K17">
-        <v>1.197238393913494</v>
+        <v>2.007852184685248</v>
       </c>
       <c r="L17">
-        <v>0.4035680694983768</v>
+        <v>0.4160477180398345</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.030047450751425</v>
+        <v>1.494554681402249</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.428513179015965</v>
+        <v>2.009923451685893</v>
       </c>
       <c r="C18">
-        <v>0.05984461738842128</v>
+        <v>0.1862479373154855</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08732112195728803</v>
+        <v>0.04927901345844887</v>
       </c>
       <c r="F18">
-        <v>3.15392397896872</v>
+        <v>2.240510746450866</v>
       </c>
       <c r="G18">
-        <v>0.002569371005851682</v>
+        <v>0.000826433809110507</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.896074106844985</v>
+        <v>1.124343585360712</v>
       </c>
       <c r="J18">
-        <v>0.1452529640811067</v>
+        <v>0.07055795954902422</v>
       </c>
       <c r="K18">
-        <v>1.185410459129997</v>
+        <v>1.957622149660949</v>
       </c>
       <c r="L18">
-        <v>0.4016173825355622</v>
+        <v>0.4065662193290933</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.034251634221619</v>
+        <v>1.504279910117916</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.424637630548432</v>
+        <v>1.992950844464758</v>
       </c>
       <c r="C19">
-        <v>0.05937632478512</v>
+        <v>0.1844832772729461</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08727066579758258</v>
+        <v>0.04895719706560797</v>
       </c>
       <c r="F19">
-        <v>3.152389920455136</v>
+        <v>2.229507730011008</v>
       </c>
       <c r="G19">
-        <v>0.002569671848271271</v>
+        <v>0.0008269507487505457</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.896005202943378</v>
+        <v>1.121416280660711</v>
       </c>
       <c r="J19">
-        <v>0.1453100361253936</v>
+        <v>0.07076904494516367</v>
       </c>
       <c r="K19">
-        <v>1.181416015522871</v>
+        <v>1.940665102288534</v>
       </c>
       <c r="L19">
-        <v>0.4009599734537517</v>
+        <v>0.4033644761987887</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.035688652357308</v>
+        <v>1.5076106631589</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.442125467705694</v>
+        <v>2.069516981763911</v>
       </c>
       <c r="C20">
-        <v>0.06148501520682714</v>
+        <v>0.192451590911773</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08749964115671105</v>
+        <v>0.05040825648870495</v>
       </c>
       <c r="F20">
-        <v>3.15938528393329</v>
+        <v>2.279306878603506</v>
       </c>
       <c r="G20">
-        <v>0.002568326301950754</v>
+        <v>0.0008246304553355025</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.896365021112651</v>
+        <v>1.134740314621205</v>
       </c>
       <c r="J20">
-        <v>0.1450543573195868</v>
+        <v>0.06982133538587754</v>
       </c>
       <c r="K20">
-        <v>1.19943236725544</v>
+        <v>2.017172830856737</v>
       </c>
       <c r="L20">
-        <v>0.4039305505297932</v>
+        <v>0.4178066484992797</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.029275789948287</v>
+        <v>1.492772949042546</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.501711174366903</v>
+        <v>2.330299533242453</v>
       </c>
       <c r="C21">
-        <v>0.06859349454721553</v>
+        <v>0.2197421930268035</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08830238419508873</v>
+        <v>0.05533605184928803</v>
       </c>
       <c r="F21">
-        <v>3.184497348448048</v>
+        <v>2.451880897796869</v>
       </c>
       <c r="G21">
-        <v>0.002563949937846144</v>
+        <v>0.0008169345867878551</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.89844473669072</v>
+        <v>1.182281904613106</v>
       </c>
       <c r="J21">
-        <v>0.1442154515041119</v>
+        <v>0.06667560913584036</v>
       </c>
       <c r="K21">
-        <v>1.260680574033557</v>
+        <v>2.277988500732306</v>
       </c>
       <c r="L21">
-        <v>0.4141236594912243</v>
+        <v>0.4669650885427501</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.008673002080172</v>
+        <v>1.445660103348402</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.541270285428254</v>
+        <v>2.503686547717962</v>
       </c>
       <c r="C22">
-        <v>0.07325739767478012</v>
+        <v>0.238019805878011</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08885177132659194</v>
+        <v>0.05859899392099166</v>
       </c>
       <c r="F22">
-        <v>3.202108251715146</v>
+        <v>2.568942475341956</v>
       </c>
       <c r="G22">
-        <v>0.00256119694913944</v>
+        <v>0.0008119732128445845</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.90045328792155</v>
+        <v>1.215593920104311</v>
       </c>
       <c r="J22">
-        <v>0.1436821701527755</v>
+        <v>0.06464836111879779</v>
       </c>
       <c r="K22">
-        <v>1.301243018019761</v>
+        <v>2.451601940111686</v>
       </c>
       <c r="L22">
-        <v>0.4209431564984953</v>
+        <v>0.4996173207801604</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.99591194635174</v>
+        <v>1.417034998219421</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.520100533443326</v>
+        <v>2.410855186742708</v>
       </c>
       <c r="C23">
-        <v>0.07076649409825109</v>
+        <v>0.2282205415782386</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08855629874712889</v>
+        <v>0.05685340720500065</v>
       </c>
       <c r="F23">
-        <v>3.192599310328561</v>
+        <v>2.506049358513124</v>
       </c>
       <c r="G23">
-        <v>0.002562656490443996</v>
+        <v>0.0008146153570202968</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.899321849950496</v>
+        <v>1.197597991737254</v>
       </c>
       <c r="J23">
-        <v>0.1439654218303019</v>
+        <v>0.06572771583093062</v>
       </c>
       <c r="K23">
-        <v>1.279545305453297</v>
+        <v>2.358628695241492</v>
       </c>
       <c r="L23">
-        <v>0.4172890689200983</v>
+        <v>0.4821387889073918</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.002658287648828</v>
+        <v>1.432106226534373</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.441161996942412</v>
+        <v>2.065299826391993</v>
       </c>
       <c r="C24">
-        <v>0.0613691286993685</v>
+        <v>0.1920121937455406</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08748694080397001</v>
+        <v>0.05032838193007549</v>
       </c>
       <c r="F24">
-        <v>3.158995079839855</v>
+        <v>2.276553243229472</v>
       </c>
       <c r="G24">
-        <v>0.002568399648086331</v>
+        <v>0.0008247574833663007</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.896341986553772</v>
+        <v>1.133998603252678</v>
       </c>
       <c r="J24">
-        <v>0.1450683221616198</v>
+        <v>0.06987323436995529</v>
       </c>
       <c r="K24">
-        <v>1.198440302029923</v>
+        <v>2.012958101442166</v>
       </c>
       <c r="L24">
-        <v>0.4037666201892733</v>
+        <v>0.417011290385247</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.029624406066915</v>
+        <v>1.493577757934375</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.358669465864381</v>
+        <v>1.703229787161376</v>
       </c>
       <c r="C25">
-        <v>0.05130676125932609</v>
+        <v>0.1545052634507016</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08644073923036188</v>
+        <v>0.04345134805196338</v>
       </c>
       <c r="F25">
-        <v>3.127895114384572</v>
+        <v>2.045114564820906</v>
       </c>
       <c r="G25">
-        <v>0.002575057974719138</v>
+        <v>0.0008360297745615094</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.89591336729999</v>
+        <v>1.073933918859247</v>
       </c>
       <c r="J25">
-        <v>0.1463224707607416</v>
+        <v>0.0744680093772534</v>
       </c>
       <c r="K25">
-        <v>1.113245928025833</v>
+        <v>1.651432312427687</v>
       </c>
       <c r="L25">
-        <v>0.3898612614374031</v>
+        <v>0.3486896830442419</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.061729338462079</v>
+        <v>1.568408865052959</v>
       </c>
       <c r="O25">
         <v>0</v>
